--- a/PFOA inhalation Rat/Inhalation model based on Scen_2/Validation/Raw_Data/All_data_Hinderliter_2006_repeated.xlsx
+++ b/PFOA inhalation Rat/Inhalation model based on Scen_2/Validation/Raw_Data/All_data_Hinderliter_2006_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Inhalation model based on Scen_2\Validation\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EB6758-92A6-42CF-B595-BE948A52FD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729B7ED-3B55-4A87-BC31-30310C44883E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17940" yWindow="2730" windowWidth="17280" windowHeight="8880" xr2:uid="{B27D7E20-7D50-4CA9-948E-5E6ABE123F2B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B27D7E20-7D50-4CA9-948E-5E6ABE123F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="11">
   <si>
     <t>Tissue</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Dose_mg_per_m3</t>
+  </si>
+  <si>
+    <t>BLQ/2</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1529AFCD-DBA5-4B5E-A415-4962832FF837}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="I16:J16"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,7 +1429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1525,8 +1528,11 @@
       <c r="F53" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>48</v>
       </c>
       <c r="C54" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -1546,7 +1552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -1565,8 +1571,11 @@
       <c r="F55" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>96</v>
       </c>
       <c r="C56" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1586,7 +1595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>4</v>
       </c>
@@ -1726,7 +1735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>4</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>384</v>
       </c>
       <c r="C66" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -1785,8 +1794,11 @@
       <c r="F66" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>432</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -1825,8 +1837,11 @@
       <c r="F68" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -1846,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
@@ -1866,7 +1881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>4</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>4</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>4</v>
       </c>
